--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lgi2</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi2</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H2">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I2">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J2">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="N2">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="O2">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="P2">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="Q2">
-        <v>0.002974535450222222</v>
+        <v>1.702992026807</v>
       </c>
       <c r="R2">
-        <v>0.026770819052</v>
+        <v>15.326928241263</v>
       </c>
       <c r="S2">
-        <v>1.450409826031169E-05</v>
+        <v>0.007732043784817286</v>
       </c>
       <c r="T2">
-        <v>1.450409826031169E-05</v>
+        <v>0.007732043784817288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H3">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I3">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J3">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.483467</v>
       </c>
       <c r="O3">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="P3">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="Q3">
-        <v>0.2976395001186667</v>
+        <v>148.9257675833757</v>
       </c>
       <c r="R3">
-        <v>2.678755501068</v>
+        <v>1340.331908250381</v>
       </c>
       <c r="S3">
-        <v>0.001451316559548376</v>
+        <v>0.6761632101127172</v>
       </c>
       <c r="T3">
-        <v>0.001451316559548376</v>
+        <v>0.6761632101127173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H4">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I4">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J4">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="N4">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="O4">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="P4">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="Q4">
-        <v>0.09335023188755556</v>
+        <v>57.97859697551489</v>
       </c>
       <c r="R4">
-        <v>0.840152086988</v>
+        <v>521.807372779634</v>
       </c>
       <c r="S4">
-        <v>0.0004551839971578874</v>
+        <v>0.2632384904569851</v>
       </c>
       <c r="T4">
-        <v>0.0004551839971578874</v>
+        <v>0.2632384904569852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.02053466666666667</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H5">
-        <v>0.061604</v>
+        <v>30.823943</v>
       </c>
       <c r="I5">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680073</v>
       </c>
       <c r="J5">
-        <v>0.001930134604048101</v>
+        <v>0.9550701914680074</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="N5">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="O5">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="P5">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="Q5">
-        <v>0.001872391976</v>
+        <v>1.748012107999778</v>
       </c>
       <c r="R5">
-        <v>0.016851527784</v>
+        <v>15.732108971998</v>
       </c>
       <c r="S5">
-        <v>9.129949081526085E-06</v>
+        <v>0.007936447113487736</v>
       </c>
       <c r="T5">
-        <v>9.129949081526085E-06</v>
+        <v>0.007936447113487738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H6">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I6">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J6">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="N6">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="O6">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="P6">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="Q6">
-        <v>1.488327237989889</v>
+        <v>0.07883789204399999</v>
       </c>
       <c r="R6">
-        <v>13.394945141909</v>
+        <v>0.709541028396</v>
       </c>
       <c r="S6">
-        <v>0.007257215408776161</v>
+        <v>0.0003579453242243452</v>
       </c>
       <c r="T6">
-        <v>0.007257215408776161</v>
+        <v>0.0003579453242243453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H7">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I7">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J7">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>43.483467</v>
       </c>
       <c r="O7">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="P7">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="Q7">
-        <v>148.9257675833757</v>
+        <v>6.894332681828001</v>
       </c>
       <c r="R7">
-        <v>1340.331908250381</v>
+        <v>62.048994136452</v>
       </c>
       <c r="S7">
-        <v>0.7261752306096233</v>
+        <v>0.03130213255486498</v>
       </c>
       <c r="T7">
-        <v>0.7261752306096233</v>
+        <v>0.03130213255486498</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H8">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I8">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J8">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="N8">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="O8">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="P8">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="Q8">
-        <v>46.70836677389123</v>
+        <v>2.684046840658666</v>
       </c>
       <c r="R8">
-        <v>420.375300965021</v>
+        <v>24.156421565928</v>
       </c>
       <c r="S8">
-        <v>0.2277541325710487</v>
+        <v>0.01218629762547049</v>
       </c>
       <c r="T8">
-        <v>0.2277541325710487</v>
+        <v>0.01218629762547049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.27464766666667</v>
+        <v>0.475652</v>
       </c>
       <c r="H9">
-        <v>30.823943</v>
+        <v>1.426956</v>
       </c>
       <c r="I9">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596928</v>
       </c>
       <c r="J9">
-        <v>0.9657548051669733</v>
+        <v>0.04421378342596929</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="N9">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="O9">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="P9">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="Q9">
-        <v>0.9368629235419998</v>
+        <v>0.08092204055733333</v>
       </c>
       <c r="R9">
-        <v>8.431766311877999</v>
+        <v>0.728298365016</v>
       </c>
       <c r="S9">
-        <v>0.004568226577525199</v>
+        <v>0.0003674079214094707</v>
       </c>
       <c r="T9">
-        <v>0.004568226577525199</v>
+        <v>0.0003674079214094708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H10">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I10">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J10">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="N10">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="O10">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="P10">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="Q10">
-        <v>0.04980082323044445</v>
+        <v>0.001276749141</v>
       </c>
       <c r="R10">
-        <v>0.448207409074</v>
+        <v>0.011490742269</v>
       </c>
       <c r="S10">
-        <v>0.0002428332241005284</v>
+        <v>5.796785953806841E-06</v>
       </c>
       <c r="T10">
-        <v>0.0002428332241005284</v>
+        <v>5.796785953806842E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H11">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I11">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J11">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>43.483467</v>
       </c>
       <c r="O11">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="P11">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="Q11">
-        <v>4.983195655207334</v>
+        <v>0.111651048767</v>
       </c>
       <c r="R11">
-        <v>44.848760896866</v>
+        <v>1.004859438903</v>
       </c>
       <c r="S11">
-        <v>0.02429850329337503</v>
+        <v>0.0005069259186761013</v>
       </c>
       <c r="T11">
-        <v>0.02429850329337503</v>
+        <v>0.0005069259186761014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H12">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I12">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J12">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="N12">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="O12">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="P12">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="Q12">
-        <v>1.562905695545111</v>
+        <v>0.04346709950466667</v>
       </c>
       <c r="R12">
-        <v>14.066151259906</v>
+        <v>0.391203895542</v>
       </c>
       <c r="S12">
-        <v>0.007620866571986409</v>
+        <v>0.0001973523723415421</v>
       </c>
       <c r="T12">
-        <v>0.007620866571986408</v>
+        <v>0.0001973523723415421</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1210,55 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3437993333333333</v>
+        <v>0.007703000000000001</v>
       </c>
       <c r="H13">
-        <v>1.031398</v>
+        <v>0.023109</v>
       </c>
       <c r="I13">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233982</v>
       </c>
       <c r="J13">
-        <v>0.03231506022897868</v>
+        <v>0.0007160251060233983</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="N13">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="O13">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="P13">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="Q13">
-        <v>0.031348310812</v>
+        <v>0.001310501119333334</v>
       </c>
       <c r="R13">
-        <v>0.282134797308</v>
+        <v>0.011794510074</v>
       </c>
       <c r="S13">
-        <v>0.0001528571395167171</v>
+        <v>5.950029051947965E-06</v>
       </c>
       <c r="T13">
-        <v>0.0001528571395167171</v>
+        <v>5.950029051947966E-06</v>
       </c>
     </row>
   </sheetData>
